--- a/base_study/example.xlsx
+++ b/base_study/example.xlsx
@@ -82,6 +82,11 @@
         <ser>
           <idx val="0"/>
           <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Sheet'!B1</f>
+            </strRef>
+          </tx>
           <spPr>
             <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
@@ -94,7 +99,7 @@
           </cat>
           <val>
             <numRef>
-              <f>'Sheet'!$B$1:$B$5</f>
+              <f>'Sheet'!$B$2:$B$5</f>
             </numRef>
           </val>
         </ser>
